--- a/src/test/java/day09_excel_screenShot_isExecutor/ulkeler.xlsx
+++ b/src/test/java/day09_excel_screenShot_isExecutor/ulkeler.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="577">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1744,12 +1744,22 @@
   </si>
   <si>
     <t>Nufus</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>54000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2178,7 +2188,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2194,7 +2204,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>573</v>
       </c>
     </row>
@@ -2211,8 +2221,8 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>1500000</v>
+      <c r="E2" t="s" s="0">
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2326,8 +2336,8 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E10">
-        <v>250000</v>
+      <c r="E10" t="s" s="0">
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2399,8 +2409,8 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E15">
-        <v>54000</v>
+      <c r="E15" t="s" s="0">
+        <v>576</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
